--- a/Output/BRAHMIN.xlsx
+++ b/Output/BRAHMIN.xlsx
@@ -3597,7 +3597,11 @@
       <c r="T2" t="n">
         <v>26</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -5604,7 +5608,11 @@
       <c r="T2" t="n">
         <v>28</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -6591,7 +6599,11 @@
       <c r="T2" t="n">
         <v>30</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -7258,7 +7270,11 @@
       <c r="T2" t="n">
         <v>26</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -8820,7 +8836,11 @@
       <c r="T2" t="n">
         <v>23</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -14067,7 +14087,11 @@
       <c r="T2" t="n">
         <v>35</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -14301,7 +14325,11 @@
       <c r="T2" t="n">
         <v>38</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -14531,7 +14559,11 @@
       <c r="T2" t="n">
         <v>29</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -15024,7 +15056,11 @@
       <c r="T2" t="n">
         <v>26</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -17031,7 +17067,11 @@
       <c r="T2" t="n">
         <v>28</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -17597,7 +17637,11 @@
       <c r="T2" t="n">
         <v>25</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
